--- a/db/tablas_procesadas/Materia.xlsx
+++ b/db/tablas_procesadas/Materia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\tablas_procesadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F7A49-733F-4C5E-9C29-557C53019DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A11318-40C2-4C1F-8137-8C3354724911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="5535" windowWidth="28785" windowHeight="15345" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
+    <workbookView xWindow="3975" yWindow="4695" windowWidth="28785" windowHeight="15345" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="164">
   <si>
     <t>nombre_materia</t>
   </si>
@@ -499,6 +499,36 @@
   </si>
   <si>
     <t>tipo_materia</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Guitarra</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Canto</t>
+  </si>
+  <si>
+    <t>Cuerda</t>
+  </si>
+  <si>
+    <t>Viento</t>
+  </si>
+  <si>
+    <t>Percusion</t>
+  </si>
+  <si>
+    <t>cantidad_docente</t>
+  </si>
+  <si>
+    <t>seccion</t>
   </si>
 </sst>
 </file>
@@ -870,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA8CF66-513C-4C40-9688-A116B35459D8}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -882,9 +912,10 @@
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -897,8 +928,14 @@
       <c r="D1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -911,8 +948,14 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -925,8 +968,14 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -939,8 +988,14 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -953,8 +1008,14 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -967,8 +1028,14 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -981,8 +1048,14 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -995,8 +1068,14 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1009,8 +1088,14 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1023,8 +1108,14 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1037,8 +1128,14 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1051,8 +1148,14 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1065,8 +1168,14 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1079,8 +1188,14 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1093,8 +1208,14 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1107,8 +1228,14 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1121,8 +1248,14 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1135,8 +1268,14 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1149,8 +1288,14 @@
       <c r="D19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1163,8 +1308,14 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1177,8 +1328,14 @@
       <c r="D21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1191,8 +1348,14 @@
       <c r="D22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1205,8 +1368,14 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1219,8 +1388,14 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1233,8 +1408,14 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1247,8 +1428,14 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1261,8 +1448,14 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1275,8 +1468,14 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1289,8 +1488,14 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1303,8 +1508,14 @@
       <c r="D30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1317,8 +1528,14 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1331,8 +1548,14 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1345,8 +1568,14 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1359,8 +1588,14 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1373,8 +1608,14 @@
       <c r="D35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1387,8 +1628,14 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1401,8 +1648,14 @@
       <c r="D37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1415,8 +1668,14 @@
       <c r="D38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1429,8 +1688,14 @@
       <c r="D39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -1443,8 +1708,14 @@
       <c r="D40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1457,8 +1728,14 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1471,8 +1748,14 @@
       <c r="D42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1485,8 +1768,14 @@
       <c r="D43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1499,8 +1788,14 @@
       <c r="D44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1513,8 +1808,14 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -1527,8 +1828,14 @@
       <c r="D46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -1541,8 +1848,14 @@
       <c r="D47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -1555,8 +1868,14 @@
       <c r="D48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -1569,8 +1888,14 @@
       <c r="D49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -1583,8 +1908,14 @@
       <c r="D50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -1597,8 +1928,14 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -1611,8 +1948,14 @@
       <c r="D52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -1625,8 +1968,14 @@
       <c r="D53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -1639,8 +1988,14 @@
       <c r="D54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -1653,8 +2008,14 @@
       <c r="D55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -1667,8 +2028,14 @@
       <c r="D56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -1681,8 +2048,14 @@
       <c r="D57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -1695,8 +2068,14 @@
       <c r="D58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -1709,8 +2088,14 @@
       <c r="D59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -1723,8 +2108,14 @@
       <c r="D60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -1737,8 +2128,14 @@
       <c r="D61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -1751,8 +2148,14 @@
       <c r="D62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -1765,8 +2168,14 @@
       <c r="D63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -1779,8 +2188,14 @@
       <c r="D64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -1793,8 +2208,14 @@
       <c r="D65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -1807,8 +2228,14 @@
       <c r="D66" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -1821,8 +2248,14 @@
       <c r="D67" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -1835,8 +2268,14 @@
       <c r="D68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -1849,8 +2288,14 @@
       <c r="D69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -1863,8 +2308,14 @@
       <c r="D70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -1877,8 +2328,14 @@
       <c r="D71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -1891,8 +2348,14 @@
       <c r="D72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>154</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -1905,8 +2368,14 @@
       <c r="D73" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>154</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -1919,8 +2388,14 @@
       <c r="D74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>154</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -1933,8 +2408,14 @@
       <c r="D75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>154</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -1947,8 +2428,14 @@
       <c r="D76" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -1961,8 +2448,14 @@
       <c r="D77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -1975,8 +2468,14 @@
       <c r="D78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -1989,8 +2488,14 @@
       <c r="D79" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -2003,8 +2508,14 @@
       <c r="D80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -2017,8 +2528,14 @@
       <c r="D81" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -2031,8 +2548,14 @@
       <c r="D82" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -2045,8 +2568,14 @@
       <c r="D83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -2059,8 +2588,14 @@
       <c r="D84" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -2073,8 +2608,14 @@
       <c r="D85" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -2087,8 +2628,14 @@
       <c r="D86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>154</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -2101,8 +2648,14 @@
       <c r="D87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>154</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -2115,8 +2668,14 @@
       <c r="D88" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -2129,8 +2688,14 @@
       <c r="D89" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -2143,8 +2708,14 @@
       <c r="D90" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>113</v>
       </c>
@@ -2157,8 +2728,14 @@
       <c r="D91" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>154</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>114</v>
       </c>
@@ -2171,8 +2748,14 @@
       <c r="D92" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -2185,8 +2768,14 @@
       <c r="D93" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>157</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -2199,8 +2788,14 @@
       <c r="D94" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -2213,8 +2808,14 @@
       <c r="D95" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>154</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -2227,8 +2828,14 @@
       <c r="D96" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -2241,8 +2848,14 @@
       <c r="D97" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>154</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -2255,8 +2868,14 @@
       <c r="D98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>154</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -2269,8 +2888,14 @@
       <c r="D99" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -2283,8 +2908,14 @@
       <c r="D100" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>137</v>
       </c>
@@ -2297,8 +2928,14 @@
       <c r="D101" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>159</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>138</v>
       </c>
@@ -2311,8 +2948,14 @@
       <c r="D102" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>155</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -2325,8 +2968,14 @@
       <c r="D103" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>160</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>140</v>
       </c>
@@ -2339,8 +2988,14 @@
       <c r="D104" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>159</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -2353,8 +3008,14 @@
       <c r="D105" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>155</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>142</v>
       </c>
@@ -2367,8 +3028,14 @@
       <c r="D106" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>156</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -2381,8 +3048,14 @@
       <c r="D107" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>161</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -2395,8 +3068,14 @@
       <c r="D108" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>159</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>145</v>
       </c>
@@ -2409,8 +3088,14 @@
       <c r="D109" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>155</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>146</v>
       </c>
@@ -2423,8 +3108,14 @@
       <c r="D110" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>156</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>147</v>
       </c>
@@ -2437,8 +3128,14 @@
       <c r="D111" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>161</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>148</v>
       </c>
@@ -2450,6 +3147,12 @@
       </c>
       <c r="D112" t="s">
         <v>150</v>
+      </c>
+      <c r="E112" t="s">
+        <v>157</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
